--- a/CardGame/Assets/Excel/MonsterPattern.xlsx
+++ b/CardGame/Assets/Excel/MonsterPattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585B2B2-7A84-4DEA-8A40-22D50B22F29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B397E-849E-4C29-B16F-143DA33BE976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2790" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="4140" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatternData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>NONE</t>
   </si>
@@ -94,6 +94,75 @@
   </si>
   <si>
     <t>patternId</t>
+  </si>
+  <si>
+    <t>501102A</t>
+  </si>
+  <si>
+    <t>401007B</t>
+  </si>
+  <si>
+    <t>401009A</t>
+  </si>
+  <si>
+    <t>FURY</t>
+  </si>
+  <si>
+    <t>501102B</t>
+  </si>
+  <si>
+    <t>401010A</t>
+  </si>
+  <si>
+    <t>401011A</t>
+  </si>
+  <si>
+    <t>401012C</t>
+  </si>
+  <si>
+    <t>401008C</t>
+  </si>
+  <si>
+    <t>BLIND</t>
+  </si>
+  <si>
+    <t>501102C</t>
+  </si>
+  <si>
+    <t>401013A</t>
+  </si>
+  <si>
+    <t>401014B</t>
+  </si>
+  <si>
+    <t>401015B</t>
+  </si>
+  <si>
+    <t>501103Z</t>
+  </si>
+  <si>
+    <t>401016A</t>
+  </si>
+  <si>
+    <t>401017A</t>
+  </si>
+  <si>
+    <t>401018B</t>
+  </si>
+  <si>
+    <t>401019B</t>
+  </si>
+  <si>
+    <t>401020B</t>
+  </si>
+  <si>
+    <t>401021C</t>
+  </si>
+  <si>
+    <t>401022C</t>
+  </si>
+  <si>
+    <t>BURN</t>
   </si>
 </sst>
 </file>
@@ -411,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +796,710 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
